--- a/ocms/target/test-classes/DownloadedFiles/Adhoc Option Enhancement (3).xlsx
+++ b/ocms/target/test-classes/DownloadedFiles/Adhoc Option Enhancement (3).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t xml:space="preserve">Promotion Number</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">TestAdhocUpdated</t>
+    <t xml:space="preserve">HoliWishes</t>
   </si>
   <si>
     <t xml:space="preserve">English</t>
@@ -70,13 +70,16 @@
     <t xml:space="preserve">Enable</t>
   </si>
   <si>
-    <t xml:space="preserve">indiatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoliWishes</t>
+    <t xml:space="preserve">BENGTETH\Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/09/2019 13:38:07</t>
   </si>
   <si>
     <t xml:space="preserve">Mandarin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/09/2019 13:39:27</t>
   </si>
 </sst>
 </file>
@@ -224,8 +227,8 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
-        <v>43650.661990740744</v>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
@@ -233,7 +236,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -256,8 +259,8 @@
       <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
-        <v>43650.65961805556</v>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
